--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 10:22:06</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:33:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:33:31</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:02:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:02:40</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:26:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:26:53</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:38:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:38:48</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:47:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:47:42</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:56:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:56:35</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:14:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:14:35</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:35:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:35:32</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:48:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:48:02</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:59:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:59:32</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:12:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:12:22</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:28:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:28:38</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:38:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:38:29</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:46:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:46:55</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:55:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:55:45</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:13:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:13:28</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:35:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
-  <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:35:56</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
+  <si>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:49:49</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12678,9 +12678,6 @@
   </si>
   <si>
     <t>VCS</t>
-  </si>
-  <si>
-    <t>VALDEMIR CARLOS DE SOUZA</t>
   </si>
   <si>
     <t>-16°12'56.430"</t>
@@ -69717,16 +69714,16 @@
         <v>4221</v>
       </c>
       <c r="C925" s="0" t="s">
-        <v>4222</v>
+        <v>1619</v>
       </c>
       <c r="D925" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E925" s="0" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F925" s="0" t="s">
         <v>4223</v>
-      </c>
-      <c r="F925" s="0" t="s">
-        <v>4224</v>
       </c>
       <c r="G925" s="0" t="s">
         <v>26</v>
@@ -69773,7 +69770,7 @@
         <v>8456</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>52</v>
@@ -69782,10 +69779,10 @@
         <v>53</v>
       </c>
       <c r="E926" s="0" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F926" s="0" t="s">
         <v>4226</v>
-      </c>
-      <c r="F926" s="0" t="s">
-        <v>4227</v>
       </c>
       <c r="G926" s="0" t="s">
         <v>26</v>
@@ -69803,7 +69800,7 @@
         <v>45.15</v>
       </c>
       <c r="L926" s="0" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="M926" s="0" t="s">
         <v>44</v>
@@ -69835,7 +69832,7 @@
         <v>8457</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>52</v>
@@ -69844,10 +69841,10 @@
         <v>53</v>
       </c>
       <c r="E927" s="0" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F927" s="0" t="s">
         <v>4230</v>
-      </c>
-      <c r="F927" s="0" t="s">
-        <v>4231</v>
       </c>
       <c r="G927" s="0" t="s">
         <v>26</v>
@@ -69865,7 +69862,7 @@
         <v>22.5</v>
       </c>
       <c r="L927" s="0" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="M927" s="0" t="s">
         <v>44</v>
@@ -69897,19 +69894,19 @@
         <v>8744</v>
       </c>
       <c r="B928" s="0" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C928" s="0" t="s">
         <v>4233</v>
       </c>
-      <c r="C928" s="0" t="s">
+      <c r="D928" s="0" t="s">
         <v>4234</v>
       </c>
-      <c r="D928" s="0" t="s">
+      <c r="E928" s="0" t="s">
         <v>4235</v>
       </c>
-      <c r="E928" s="0" t="s">
+      <c r="F928" s="0" t="s">
         <v>4236</v>
-      </c>
-      <c r="F928" s="0" t="s">
-        <v>4237</v>
       </c>
       <c r="G928" s="0" t="s">
         <v>703</v>
@@ -69927,7 +69924,7 @@
         <v>15.5</v>
       </c>
       <c r="L928" s="0" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="M928" s="0" t="s">
         <v>44</v>
@@ -69959,37 +69956,37 @@
         <v>8857</v>
       </c>
       <c r="B929" s="0" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C929" s="0" t="s">
         <v>4239</v>
       </c>
-      <c r="C929" s="0" t="s">
+      <c r="D929" s="0" t="s">
         <v>4240</v>
       </c>
-      <c r="D929" s="0" t="s">
+      <c r="E929" s="0" t="s">
         <v>4241</v>
       </c>
-      <c r="E929" s="0" t="s">
+      <c r="F929" s="0" t="s">
         <v>4242</v>
       </c>
-      <c r="F929" s="0" t="s">
+      <c r="G929" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H929" s="0" t="s">
         <v>4243</v>
-      </c>
-      <c r="G929" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H929" s="0" t="s">
-        <v>4244</v>
       </c>
       <c r="I929" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="K929" s="0">
         <v>25</v>
       </c>
       <c r="L929" s="0" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="M929" s="0" t="s">
         <v>147</v>
@@ -70021,19 +70018,19 @@
         <v>9357</v>
       </c>
       <c r="B930" s="0" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C930" s="0" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D930" s="0" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E930" s="0" t="s">
         <v>4247</v>
       </c>
-      <c r="C930" s="0" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D930" s="0" t="s">
-        <v>4241</v>
-      </c>
-      <c r="E930" s="0" t="s">
+      <c r="F930" s="0" t="s">
         <v>4248</v>
-      </c>
-      <c r="F930" s="0" t="s">
-        <v>4249</v>
       </c>
       <c r="G930" s="0" t="s">
         <v>26</v>
@@ -70045,13 +70042,13 @@
         <v>120</v>
       </c>
       <c r="J930" s="0" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="K930" s="0">
         <v>19</v>
       </c>
       <c r="L930" s="0" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="M930" s="0" t="s">
         <v>44</v>
@@ -70083,7 +70080,7 @@
         <v>9534</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>52</v>
@@ -70092,10 +70089,10 @@
         <v>53</v>
       </c>
       <c r="E931" s="0" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F931" s="0" t="s">
         <v>4252</v>
-      </c>
-      <c r="F931" s="0" t="s">
-        <v>4253</v>
       </c>
       <c r="G931" s="0" t="s">
         <v>26</v>
@@ -70113,7 +70110,7 @@
         <v>70</v>
       </c>
       <c r="L931" s="0" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="M931" s="0" t="s">
         <v>147</v>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:49:49</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:57:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:57:17</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:12:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:12:31</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:26:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:26:17</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:36:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:36:03</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:44:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:44:16</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:53:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:53:10</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:02:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:02:22</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:28:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:28:44</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:42:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:42:35</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:51:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:51:35</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:00:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:00:12</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:17:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:17:36</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:31:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:31:05</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:40:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:40:14</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:50:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:50:30</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:59:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:59:05</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:17:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:17:19</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:33:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:33:42</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:44:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:44:17</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:53:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:53:50</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:02:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:02:24</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:19:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:19:25</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:29:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:29:07</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:38:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:38:27</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:47:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:47:38</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:55:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:55:54</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 09:16:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 09:16:27</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 09:52:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 09:52:40</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 10:16:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 10:16:27</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 10:34:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 10:34:49</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 10:44:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 10:44:00</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 10:52:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 10:52:57</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:01:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:01:50</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:20:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:20:33</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:32:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:32:24</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:41:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:41:24</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:50:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:50:34</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:59:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:59:20</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:17:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:17:54</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:32:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:32:09</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:43:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:43:18</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 12:51:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 12:51:40</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:00:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:00:37</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:27:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:27:32</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:47:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:47:35</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 01:59:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 01:59:05</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:14:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:14:23</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:29:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:29:33</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:39:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:39:02</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:47:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:47:32</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 02:56:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 02:56:24</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:13:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:13:22</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:34:05</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -22560,7 +22560,7 @@
         <v>48</v>
       </c>
       <c r="R160" s="0" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="S160" s="0" t="s">
         <v>148</v>
@@ -22684,7 +22684,7 @@
         <v>48</v>
       </c>
       <c r="R162" s="0" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="S162" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:34:05</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:46:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:46:29</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 03:55:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 03:55:24</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:07:41</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -22560,7 +22560,7 @@
         <v>48</v>
       </c>
       <c r="R160" s="0" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
       <c r="S160" s="0" t="s">
         <v>148</v>
@@ -22684,7 +22684,7 @@
         <v>48</v>
       </c>
       <c r="R162" s="0" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
       <c r="S162" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:07:41</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:21:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:21:21</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:30:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:30:00</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:39:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:39:48</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:47:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:47:59</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 04:57:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 04:57:18</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:12:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:12:37</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:29:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:29:20</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:38:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:38:30</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:47:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:47:33</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 05:56:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 05:56:36</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:11:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:11:31</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:25:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:25:59</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:35:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:35:23</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:44:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:44:00</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 06:52:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 06:52:46</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:01:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:01:38</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:21:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:21:41</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:32:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:32:43</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:42:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:42:23</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 07:50:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 07:50:45</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:00:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:00:02</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:19:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:19:07</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:33:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:33:32</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:43:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:43:06</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 08:52:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-08.xlsx
+++ b/sigbm_download_2022-12-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 08:52:04</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 09:01:09</t>
   </si>
   <si>
     <t>ID Barragem</t>
